--- a/Graphs.xlsx
+++ b/Graphs.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28705"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21029"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jonathan\Desktop\huh\cmsc409-project3\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{785F9069-535E-49E1-872B-8D09A2532B9D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1600" yWindow="0" windowWidth="36800" windowHeight="23540" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="1596" yWindow="0" windowWidth="36804" windowHeight="23544" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Degree 1" sheetId="1" r:id="rId1"/>
@@ -50,7 +56,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -142,11 +148,19 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -179,7 +193,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -201,52 +214,52 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>11.0</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>12.0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>13.0</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>14.0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>15.0</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>16.0</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>17.0</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>18.0</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>19.0</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>20.0</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -258,34 +271,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>3.717</c:v>
+                  <c:v>3.7170000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.063</c:v>
+                  <c:v>5.0629999999999997</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.866</c:v>
+                  <c:v>6.8659999999999997</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.893</c:v>
+                  <c:v>6.8929999999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.869</c:v>
+                  <c:v>5.8689999999999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.551</c:v>
+                  <c:v>6.5510000000000002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.904</c:v>
+                  <c:v>4.9039999999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.769999999999999</c:v>
+                  <c:v>4.7699999999999996</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>3.734</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.459</c:v>
+                  <c:v>3.4590000000000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>4.149</c:v>
@@ -297,18 +310,23 @@
                   <c:v>3.77</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5.683</c:v>
+                  <c:v>5.6829999999999998</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>6.377</c:v>
+                  <c:v>6.3769999999999998</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>9.748</c:v>
+                  <c:v>9.7479999999999993</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-00CE-47F5-BA7B-A0906A007319}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -323,52 +341,52 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>11.0</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>12.0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>13.0</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>14.0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>15.0</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>16.0</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>17.0</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>18.0</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>19.0</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>20.0</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -380,57 +398,62 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>4.643544999999999</c:v>
+                  <c:v>4.6435449999999996</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.730049</c:v>
+                  <c:v>4.7300490000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.816553</c:v>
+                  <c:v>4.8165529999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.903057</c:v>
+                  <c:v>4.9030570000000004</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.989562</c:v>
+                  <c:v>4.9895620000000003</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>5.076066</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.16257</c:v>
+                  <c:v>5.1625699999999997</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.249074</c:v>
+                  <c:v>5.2490740000000002</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.335578</c:v>
+                  <c:v>5.3355779999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5.422082</c:v>
+                  <c:v>5.4220819999999996</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5.508587</c:v>
+                  <c:v>5.5085870000000003</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>5.595091</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5.681595</c:v>
+                  <c:v>5.6815949999999997</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5.768099</c:v>
+                  <c:v>5.7680990000000003</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>5.854603</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5.941107</c:v>
+                  <c:v>5.9411069999999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-00CE-47F5-BA7B-A0906A007319}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -452,6 +475,29 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> of Day (hours)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
@@ -471,6 +517,29 @@
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Energy</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Consumption (kW)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
@@ -482,7 +551,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -491,14 +559,14 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -511,6 +579,29 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Training</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> 1, Degree=3</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -530,52 +621,52 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>11.0</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>12.0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>13.0</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>14.0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>15.0</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>16.0</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>17.0</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>18.0</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>19.0</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>20.0</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -587,34 +678,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>3.721</c:v>
+                  <c:v>3.7210000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.491</c:v>
+                  <c:v>5.4909999999999997</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.996</c:v>
+                  <c:v>5.9960000000000004</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.974</c:v>
+                  <c:v>6.9740000000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>6.46</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.908</c:v>
+                  <c:v>5.9080000000000004</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.928</c:v>
+                  <c:v>4.9279999999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.727</c:v>
+                  <c:v>4.7270000000000003</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>3.923</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.076</c:v>
+                  <c:v>4.0759999999999996</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>2.891</c:v>
@@ -623,10 +714,10 @@
                   <c:v>3.419</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.866</c:v>
+                  <c:v>4.8659999999999997</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5.115</c:v>
+                  <c:v>5.1150000000000002</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>7.585</c:v>
@@ -638,6 +729,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C361-4B7E-B119-EEC00CE8FF98}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -652,52 +748,52 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>11.0</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>12.0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>13.0</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>14.0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>15.0</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>16.0</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>17.0</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>18.0</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>19.0</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>20.0</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -709,57 +805,62 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>6.044339</c:v>
+                  <c:v>6.0443389999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.913152</c:v>
+                  <c:v>5.9131520000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.67601</c:v>
+                  <c:v>5.6760099999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.368116</c:v>
+                  <c:v>5.3681159999999997</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.024672</c:v>
+                  <c:v>5.0246719999999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.68088</c:v>
+                  <c:v>4.6808800000000002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.371942</c:v>
+                  <c:v>4.3719419999999998</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.13306</c:v>
+                  <c:v>4.1330600000000004</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.999437</c:v>
+                  <c:v>3.9994369999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.006275</c:v>
+                  <c:v>4.0062749999999996</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.188776</c:v>
+                  <c:v>4.1887759999999998</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>4.582141</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5.221574</c:v>
+                  <c:v>5.2215740000000004</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>6.142276</c:v>
+                  <c:v>6.1422759999999998</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>7.37945</c:v>
+                  <c:v>7.3794500000000003</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>8.968298000000001</c:v>
+                  <c:v>8.9682980000000008</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C361-4B7E-B119-EEC00CE8FF98}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -781,6 +882,24 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time of Day (hours)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
@@ -800,6 +919,29 @@
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Energy Consumption</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> (kW)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
@@ -811,7 +953,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -820,14 +961,14 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -840,6 +981,24 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Training 2, Degree=3</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -859,52 +1018,52 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>11.0</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>12.0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>13.0</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>14.0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>15.0</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>16.0</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>17.0</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>18.0</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>19.0</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>20.0</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -916,46 +1075,46 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>4.646</c:v>
+                  <c:v>4.6459999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.949</c:v>
+                  <c:v>4.9489999999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.328</c:v>
+                  <c:v>6.3280000000000003</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.659</c:v>
+                  <c:v>6.6589999999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.065</c:v>
+                  <c:v>6.0650000000000004</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>6.13</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.814</c:v>
+                  <c:v>4.8140000000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>5.016</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.663</c:v>
+                  <c:v>3.6629999999999998</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.089</c:v>
+                  <c:v>4.0890000000000004</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.046</c:v>
+                  <c:v>3.0459999999999998</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.969</c:v>
+                  <c:v>2.9689999999999999</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.417</c:v>
+                  <c:v>4.4169999999999998</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5.769</c:v>
+                  <c:v>5.7690000000000001</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>7.45</c:v>
@@ -967,6 +1126,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2576-4C9F-82E6-F59D167764FB}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -981,52 +1145,52 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>11.0</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>12.0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>13.0</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>14.0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>15.0</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>16.0</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>17.0</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>18.0</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>19.0</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>20.0</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1038,57 +1202,62 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>6.044339</c:v>
+                  <c:v>6.0443389999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.913152</c:v>
+                  <c:v>5.9131520000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.67601</c:v>
+                  <c:v>5.6760099999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.368116</c:v>
+                  <c:v>5.3681159999999997</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.024672</c:v>
+                  <c:v>5.0246719999999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.68088</c:v>
+                  <c:v>4.6808800000000002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.371942</c:v>
+                  <c:v>4.3719419999999998</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.13306</c:v>
+                  <c:v>4.1330600000000004</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.999437</c:v>
+                  <c:v>3.9994369999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.006275</c:v>
+                  <c:v>4.0062749999999996</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.188776</c:v>
+                  <c:v>4.1887759999999998</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>4.582141</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5.221574</c:v>
+                  <c:v>5.2215740000000004</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>6.142276</c:v>
+                  <c:v>6.1422759999999998</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>7.37945</c:v>
+                  <c:v>7.3794500000000003</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>8.968298000000001</c:v>
+                  <c:v>8.9682980000000008</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2576-4C9F-82E6-F59D167764FB}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1110,6 +1279,24 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time of Day (hours)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
@@ -1129,6 +1316,24 @@
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Energy Consumption (kW)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
@@ -1140,7 +1345,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1149,14 +1353,14 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1169,6 +1373,24 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Training 3, Degree=3</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -1188,52 +1410,52 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>11.0</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>12.0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>13.0</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>14.0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>15.0</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>16.0</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>17.0</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>18.0</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>19.0</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>20.0</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1245,57 +1467,62 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>4.23</c:v>
+                  <c:v>4.2300000000000004</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.714</c:v>
+                  <c:v>5.7140000000000004</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.012</c:v>
+                  <c:v>6.0119999999999996</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.058</c:v>
+                  <c:v>6.0579999999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.563</c:v>
+                  <c:v>6.5629999999999997</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.553</c:v>
+                  <c:v>5.5529999999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>5.51</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.188</c:v>
+                  <c:v>5.1879999999999997</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.958</c:v>
+                  <c:v>3.9580000000000002</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>3.653</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.837</c:v>
+                  <c:v>2.8370000000000002</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>3.47</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3.975</c:v>
+                  <c:v>3.9750000000000001</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5.334</c:v>
+                  <c:v>5.3339999999999996</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>7.355</c:v>
+                  <c:v>7.3550000000000004</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>9.228</c:v>
+                  <c:v>9.2279999999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-BF68-447D-A70B-7CD0681F6444}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -1310,52 +1537,52 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>11.0</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>12.0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>13.0</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>14.0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>15.0</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>16.0</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>17.0</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>18.0</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>19.0</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>20.0</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1367,57 +1594,62 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>6.044339</c:v>
+                  <c:v>6.0443389999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.913152</c:v>
+                  <c:v>5.9131520000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.67601</c:v>
+                  <c:v>5.6760099999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.368116</c:v>
+                  <c:v>5.3681159999999997</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.024672</c:v>
+                  <c:v>5.0246719999999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.68088</c:v>
+                  <c:v>4.6808800000000002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.371942</c:v>
+                  <c:v>4.3719419999999998</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.13306</c:v>
+                  <c:v>4.1330600000000004</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.999437</c:v>
+                  <c:v>3.9994369999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.006275</c:v>
+                  <c:v>4.0062749999999996</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.188776</c:v>
+                  <c:v>4.1887759999999998</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>4.582141</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5.221574</c:v>
+                  <c:v>5.2215740000000004</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>6.142276</c:v>
+                  <c:v>6.1422759999999998</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>7.37945</c:v>
+                  <c:v>7.3794500000000003</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>8.968298000000001</c:v>
+                  <c:v>8.9682980000000008</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-BF68-447D-A70B-7CD0681F6444}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1439,6 +1671,29 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> of Day (hours)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
@@ -1458,6 +1713,24 @@
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Energy Consumption (kW)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
@@ -1469,7 +1742,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1478,14 +1750,14 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1519,7 +1791,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1541,52 +1812,52 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>11.0</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>12.0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>13.0</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>14.0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>15.0</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>16.0</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>17.0</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>18.0</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>19.0</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>20.0</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1598,57 +1869,62 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>4.23</c:v>
+                  <c:v>4.2300000000000004</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.714</c:v>
+                  <c:v>5.7140000000000004</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.012</c:v>
+                  <c:v>6.0119999999999996</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.058</c:v>
+                  <c:v>6.0579999999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.563</c:v>
+                  <c:v>6.5629999999999997</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.553</c:v>
+                  <c:v>5.5529999999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>5.51</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.188</c:v>
+                  <c:v>5.1879999999999997</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.958</c:v>
+                  <c:v>3.9580000000000002</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>3.653</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.837</c:v>
+                  <c:v>2.8370000000000002</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>3.47</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3.975</c:v>
+                  <c:v>3.9750000000000001</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5.334</c:v>
+                  <c:v>5.3339999999999996</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>7.355</c:v>
+                  <c:v>7.3550000000000004</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>9.228</c:v>
+                  <c:v>9.2279999999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-AA49-4EB5-98F6-A92EDCD391B3}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -1663,52 +1939,52 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>11.0</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>12.0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>13.0</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>14.0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>15.0</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>16.0</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>17.0</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>18.0</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>19.0</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>20.0</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1720,57 +1996,62 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>4.643544999999999</c:v>
+                  <c:v>4.6435449999999996</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.730049</c:v>
+                  <c:v>4.7300490000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.816553</c:v>
+                  <c:v>4.8165529999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.903057</c:v>
+                  <c:v>4.9030570000000004</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.989562</c:v>
+                  <c:v>4.9895620000000003</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>5.076066</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.16257</c:v>
+                  <c:v>5.1625699999999997</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.249074</c:v>
+                  <c:v>5.2490740000000002</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.335578</c:v>
+                  <c:v>5.3355779999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5.422082</c:v>
+                  <c:v>5.4220819999999996</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5.508587</c:v>
+                  <c:v>5.5085870000000003</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>5.595091</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5.681595</c:v>
+                  <c:v>5.6815949999999997</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5.768099</c:v>
+                  <c:v>5.7680990000000003</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>5.854603</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5.941107</c:v>
+                  <c:v>5.9411069999999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-AA49-4EB5-98F6-A92EDCD391B3}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1792,6 +2073,24 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time of Day (hours)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
@@ -1811,6 +2110,29 @@
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Energy Consumption</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> (kW)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
@@ -1822,7 +2144,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1831,14 +2152,14 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1871,7 +2192,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1893,52 +2213,52 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>11.0</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>12.0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>13.0</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>14.0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>15.0</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>16.0</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>17.0</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>18.0</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>19.0</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>20.0</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1950,34 +2270,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>3.721</c:v>
+                  <c:v>3.7210000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.491</c:v>
+                  <c:v>5.4909999999999997</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.996</c:v>
+                  <c:v>5.9960000000000004</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.974</c:v>
+                  <c:v>6.9740000000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>6.46</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.908</c:v>
+                  <c:v>5.9080000000000004</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.928</c:v>
+                  <c:v>4.9279999999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.727</c:v>
+                  <c:v>4.7270000000000003</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>3.923</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.076</c:v>
+                  <c:v>4.0759999999999996</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>2.891</c:v>
@@ -1986,10 +2306,10 @@
                   <c:v>3.419</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.866</c:v>
+                  <c:v>4.8659999999999997</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5.115</c:v>
+                  <c:v>5.1150000000000002</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>7.585</c:v>
@@ -2001,6 +2321,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8515-451A-A6DD-CEA09CFB9232}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -2015,52 +2340,52 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>11.0</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>12.0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>13.0</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>14.0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>15.0</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>16.0</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>17.0</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>18.0</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>19.0</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>20.0</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2072,57 +2397,62 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>4.643544999999999</c:v>
+                  <c:v>4.6435449999999996</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.730049</c:v>
+                  <c:v>4.7300490000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.816553</c:v>
+                  <c:v>4.8165529999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.903057</c:v>
+                  <c:v>4.9030570000000004</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.989562</c:v>
+                  <c:v>4.9895620000000003</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>5.076066</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.16257</c:v>
+                  <c:v>5.1625699999999997</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.249074</c:v>
+                  <c:v>5.2490740000000002</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.335578</c:v>
+                  <c:v>5.3355779999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5.422082</c:v>
+                  <c:v>5.4220819999999996</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5.508587</c:v>
+                  <c:v>5.5085870000000003</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>5.595091</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5.681595</c:v>
+                  <c:v>5.6815949999999997</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5.768099</c:v>
+                  <c:v>5.7680990000000003</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>5.854603</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5.941107</c:v>
+                  <c:v>5.9411069999999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8515-451A-A6DD-CEA09CFB9232}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -2144,6 +2474,29 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> of Day (hours)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
@@ -2163,6 +2516,24 @@
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Energy Consumption (kW)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
@@ -2174,7 +2545,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2183,14 +2553,14 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2219,7 +2589,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2241,52 +2610,52 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>11.0</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>12.0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>13.0</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>14.0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>15.0</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>16.0</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>17.0</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>18.0</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>19.0</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>20.0</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2298,46 +2667,46 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>4.646</c:v>
+                  <c:v>4.6459999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.949</c:v>
+                  <c:v>4.9489999999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.328</c:v>
+                  <c:v>6.3280000000000003</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.659</c:v>
+                  <c:v>6.6589999999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.065</c:v>
+                  <c:v>6.0650000000000004</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>6.13</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.814</c:v>
+                  <c:v>4.8140000000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>5.016</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.663</c:v>
+                  <c:v>3.6629999999999998</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.089</c:v>
+                  <c:v>4.0890000000000004</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.046</c:v>
+                  <c:v>3.0459999999999998</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.969</c:v>
+                  <c:v>2.9689999999999999</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.417</c:v>
+                  <c:v>4.4169999999999998</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5.769</c:v>
+                  <c:v>5.7690000000000001</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>7.45</c:v>
@@ -2349,6 +2718,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1649-4461-AF42-1EF254732696}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -2363,52 +2737,52 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>11.0</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>12.0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>13.0</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>14.0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>15.0</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>16.0</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>17.0</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>18.0</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>19.0</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>20.0</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2420,57 +2794,62 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>4.643544999999999</c:v>
+                  <c:v>4.6435449999999996</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.730049</c:v>
+                  <c:v>4.7300490000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.816553</c:v>
+                  <c:v>4.8165529999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.903057</c:v>
+                  <c:v>4.9030570000000004</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.989562</c:v>
+                  <c:v>4.9895620000000003</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>5.076066</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.16257</c:v>
+                  <c:v>5.1625699999999997</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.249074</c:v>
+                  <c:v>5.2490740000000002</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.335578</c:v>
+                  <c:v>5.3355779999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5.422082</c:v>
+                  <c:v>5.4220819999999996</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5.508587</c:v>
+                  <c:v>5.5085870000000003</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>5.595091</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5.681595</c:v>
+                  <c:v>5.6815949999999997</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5.768099</c:v>
+                  <c:v>5.7680990000000003</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>5.854603</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5.941107</c:v>
+                  <c:v>5.9411069999999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-1649-4461-AF42-1EF254732696}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -2492,6 +2871,24 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time of Day (hours)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
@@ -2511,6 +2908,24 @@
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Energy Consumption (kW)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
@@ -2522,7 +2937,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2531,14 +2945,14 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2567,7 +2981,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2589,52 +3002,52 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>11.0</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>12.0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>13.0</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>14.0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>15.0</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>16.0</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>17.0</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>18.0</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>19.0</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>20.0</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2646,34 +3059,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>3.717</c:v>
+                  <c:v>3.7170000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.063</c:v>
+                  <c:v>5.0629999999999997</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.866</c:v>
+                  <c:v>6.8659999999999997</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.893</c:v>
+                  <c:v>6.8929999999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.869</c:v>
+                  <c:v>5.8689999999999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.551</c:v>
+                  <c:v>6.5510000000000002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.904</c:v>
+                  <c:v>4.9039999999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.769999999999999</c:v>
+                  <c:v>4.7699999999999996</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>3.734</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.459</c:v>
+                  <c:v>3.4590000000000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>4.149</c:v>
@@ -2685,18 +3098,23 @@
                   <c:v>3.77</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5.683</c:v>
+                  <c:v>5.6829999999999998</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>6.377</c:v>
+                  <c:v>6.3769999999999998</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>9.748</c:v>
+                  <c:v>9.7479999999999993</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3879-49C4-B92C-D35F895CD7F4}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -2711,52 +3129,52 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>11.0</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>12.0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>13.0</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>14.0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>15.0</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>16.0</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>17.0</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>18.0</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>19.0</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>20.0</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2768,57 +3186,62 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>4.228378</c:v>
+                  <c:v>4.2283780000000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.428381</c:v>
+                  <c:v>4.4283809999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.615566</c:v>
+                  <c:v>4.6155660000000003</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.789933</c:v>
+                  <c:v>4.7899330000000004</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.951482</c:v>
+                  <c:v>4.9514820000000004</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>5.100212</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.236125</c:v>
+                  <c:v>5.2361250000000004</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.359219</c:v>
+                  <c:v>5.3592190000000004</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.469495</c:v>
+                  <c:v>5.4694950000000002</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5.566953</c:v>
+                  <c:v>5.5669529999999998</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5.651593</c:v>
+                  <c:v>5.6515930000000001</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>5.723414</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5.782418</c:v>
+                  <c:v>5.7824179999999998</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5.828603</c:v>
+                  <c:v>5.8286030000000002</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5.861971</c:v>
+                  <c:v>5.8619709999999996</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5.88252</c:v>
+                  <c:v>5.8825200000000004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3879-49C4-B92C-D35F895CD7F4}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -2840,6 +3263,24 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time of Day (hours)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
@@ -2859,6 +3300,29 @@
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Energy</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Consmption (kW)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
@@ -2870,7 +3334,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2879,14 +3342,14 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2920,7 +3383,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2942,52 +3404,52 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>11.0</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>12.0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>13.0</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>14.0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>15.0</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>16.0</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>17.0</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>18.0</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>19.0</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>20.0</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2999,34 +3461,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>3.721</c:v>
+                  <c:v>3.7210000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.491</c:v>
+                  <c:v>5.4909999999999997</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.996</c:v>
+                  <c:v>5.9960000000000004</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.974</c:v>
+                  <c:v>6.9740000000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>6.46</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.908</c:v>
+                  <c:v>5.9080000000000004</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.928</c:v>
+                  <c:v>4.9279999999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.727</c:v>
+                  <c:v>4.7270000000000003</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>3.923</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.076</c:v>
+                  <c:v>4.0759999999999996</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>2.891</c:v>
@@ -3035,10 +3497,10 @@
                   <c:v>3.419</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.866</c:v>
+                  <c:v>4.8659999999999997</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5.115</c:v>
+                  <c:v>5.1150000000000002</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>7.585</c:v>
@@ -3050,6 +3512,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F1D6-4A96-959F-11B8F2DBDFA4}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -3064,52 +3531,52 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>11.0</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>12.0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>13.0</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>14.0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>15.0</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>16.0</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>17.0</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>18.0</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>19.0</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>20.0</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3121,57 +3588,62 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>4.228378</c:v>
+                  <c:v>4.2283780000000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.428381</c:v>
+                  <c:v>4.4283809999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.615566</c:v>
+                  <c:v>4.6155660000000003</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.789933</c:v>
+                  <c:v>4.7899330000000004</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.951482</c:v>
+                  <c:v>4.9514820000000004</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>5.100212</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.236125</c:v>
+                  <c:v>5.2361250000000004</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.359219</c:v>
+                  <c:v>5.3592190000000004</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.469495</c:v>
+                  <c:v>5.4694950000000002</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5.566953</c:v>
+                  <c:v>5.5669529999999998</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5.651593</c:v>
+                  <c:v>5.6515930000000001</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>5.723414</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5.782418</c:v>
+                  <c:v>5.7824179999999998</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5.828603</c:v>
+                  <c:v>5.8286030000000002</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5.861971</c:v>
+                  <c:v>5.8619709999999996</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5.88252</c:v>
+                  <c:v>5.8825200000000004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F1D6-4A96-959F-11B8F2DBDFA4}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -3193,6 +3665,24 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time of Day (hours)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
@@ -3212,6 +3702,29 @@
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Energy Consumpiton</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> (kW)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
@@ -3223,7 +3736,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3232,14 +3744,14 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -3268,7 +3780,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3290,52 +3801,52 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>11.0</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>12.0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>13.0</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>14.0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>15.0</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>16.0</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>17.0</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>18.0</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>19.0</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>20.0</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3347,46 +3858,46 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>4.646</c:v>
+                  <c:v>4.6459999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.949</c:v>
+                  <c:v>4.9489999999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.328</c:v>
+                  <c:v>6.3280000000000003</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.659</c:v>
+                  <c:v>6.6589999999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.065</c:v>
+                  <c:v>6.0650000000000004</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>6.13</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.814</c:v>
+                  <c:v>4.8140000000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>5.016</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.663</c:v>
+                  <c:v>3.6629999999999998</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.089</c:v>
+                  <c:v>4.0890000000000004</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.046</c:v>
+                  <c:v>3.0459999999999998</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.969</c:v>
+                  <c:v>2.9689999999999999</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.417</c:v>
+                  <c:v>4.4169999999999998</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5.769</c:v>
+                  <c:v>5.7690000000000001</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>7.45</c:v>
@@ -3398,6 +3909,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F47D-49C2-A38D-3005BE540FB5}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -3412,52 +3928,52 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>11.0</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>12.0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>13.0</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>14.0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>15.0</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>16.0</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>17.0</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>18.0</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>19.0</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>20.0</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3469,57 +3985,62 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>4.228378</c:v>
+                  <c:v>4.2283780000000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.428381</c:v>
+                  <c:v>4.4283809999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.615566</c:v>
+                  <c:v>4.6155660000000003</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.789933</c:v>
+                  <c:v>4.7899330000000004</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.951482</c:v>
+                  <c:v>4.9514820000000004</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>5.100212</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.236125</c:v>
+                  <c:v>5.2361250000000004</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.359219</c:v>
+                  <c:v>5.3592190000000004</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.469495</c:v>
+                  <c:v>5.4694950000000002</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5.566953</c:v>
+                  <c:v>5.5669529999999998</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5.651593</c:v>
+                  <c:v>5.6515930000000001</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>5.723414</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5.782418</c:v>
+                  <c:v>5.7824179999999998</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5.828603</c:v>
+                  <c:v>5.8286030000000002</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5.861971</c:v>
+                  <c:v>5.8619709999999996</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5.88252</c:v>
+                  <c:v>5.8825200000000004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F47D-49C2-A38D-3005BE540FB5}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -3541,6 +4062,24 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time of Day (hours)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
@@ -3560,6 +4099,29 @@
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Energy Consumption</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> (kW)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
@@ -3571,7 +4133,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3580,14 +4141,14 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -3621,7 +4182,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3643,52 +4203,52 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>11.0</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>12.0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>13.0</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>14.0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>15.0</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>16.0</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>17.0</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>18.0</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>19.0</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>20.0</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3700,57 +4260,62 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>4.23</c:v>
+                  <c:v>4.2300000000000004</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.714</c:v>
+                  <c:v>5.7140000000000004</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.012</c:v>
+                  <c:v>6.0119999999999996</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.058</c:v>
+                  <c:v>6.0579999999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.563</c:v>
+                  <c:v>6.5629999999999997</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.553</c:v>
+                  <c:v>5.5529999999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>5.51</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.188</c:v>
+                  <c:v>5.1879999999999997</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.958</c:v>
+                  <c:v>3.9580000000000002</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>3.653</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.837</c:v>
+                  <c:v>2.8370000000000002</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>3.47</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3.975</c:v>
+                  <c:v>3.9750000000000001</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5.334</c:v>
+                  <c:v>5.3339999999999996</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>7.355</c:v>
+                  <c:v>7.3550000000000004</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>9.228</c:v>
+                  <c:v>9.2279999999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C6DF-48E0-A217-776A3E74DFD9}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -3765,52 +4330,52 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>11.0</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>12.0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>13.0</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>14.0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>15.0</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>16.0</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>17.0</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>18.0</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>19.0</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>20.0</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3822,57 +4387,62 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>4.228378</c:v>
+                  <c:v>4.2283780000000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.428381</c:v>
+                  <c:v>4.4283809999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.615566</c:v>
+                  <c:v>4.6155660000000003</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.789933</c:v>
+                  <c:v>4.7899330000000004</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.951482</c:v>
+                  <c:v>4.9514820000000004</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>5.100212</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.236125</c:v>
+                  <c:v>5.2361250000000004</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.359219</c:v>
+                  <c:v>5.3592190000000004</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.469495</c:v>
+                  <c:v>5.4694950000000002</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5.566953</c:v>
+                  <c:v>5.5669529999999998</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5.651593</c:v>
+                  <c:v>5.6515930000000001</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>5.723414</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5.782418</c:v>
+                  <c:v>5.7824179999999998</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5.828603</c:v>
+                  <c:v>5.8286030000000002</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5.861971</c:v>
+                  <c:v>5.8619709999999996</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5.88252</c:v>
+                  <c:v>5.8825200000000004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C6DF-48E0-A217-776A3E74DFD9}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -3894,6 +4464,29 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time of</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Day (hours)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
@@ -3913,6 +4506,24 @@
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Energy Consumption (kW)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
@@ -3924,7 +4535,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3933,14 +4543,14 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -3953,6 +4563,24 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Testing 1, Degree=3</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -3972,52 +4600,52 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>11.0</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>12.0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>13.0</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>14.0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>15.0</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>16.0</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>17.0</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>18.0</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>19.0</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>20.0</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4029,34 +4657,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>3.717</c:v>
+                  <c:v>3.7170000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.063</c:v>
+                  <c:v>5.0629999999999997</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.866</c:v>
+                  <c:v>6.8659999999999997</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.893</c:v>
+                  <c:v>6.8929999999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.869</c:v>
+                  <c:v>5.8689999999999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.551</c:v>
+                  <c:v>6.5510000000000002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.904</c:v>
+                  <c:v>4.9039999999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.769999999999999</c:v>
+                  <c:v>4.7699999999999996</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>3.734</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.459</c:v>
+                  <c:v>3.4590000000000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>4.149</c:v>
@@ -4068,18 +4696,23 @@
                   <c:v>3.77</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5.683</c:v>
+                  <c:v>5.6829999999999998</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>6.377</c:v>
+                  <c:v>6.3769999999999998</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>9.748</c:v>
+                  <c:v>9.7479999999999993</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7F5A-4C71-8A54-97DCD47F43DC}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -4094,52 +4727,52 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>11.0</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>12.0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>13.0</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>14.0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>15.0</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>16.0</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>17.0</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>18.0</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>19.0</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>20.0</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4151,31 +4784,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>6.128051</c:v>
+                  <c:v>6.1280510000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.914177</c:v>
+                  <c:v>5.9141769999999996</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.624021</c:v>
+                  <c:v>5.6240209999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.28841</c:v>
+                  <c:v>5.2884099999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.93817</c:v>
+                  <c:v>4.9381700000000004</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.604126</c:v>
+                  <c:v>4.6041259999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.317106</c:v>
+                  <c:v>4.3171059999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.107934</c:v>
+                  <c:v>4.1079340000000002</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.007438</c:v>
+                  <c:v>4.0074379999999996</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>4.046443</c:v>
@@ -4184,24 +4817,29 @@
                   <c:v>4.255776</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4.666263</c:v>
+                  <c:v>4.6662629999999998</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5.30873</c:v>
+                  <c:v>5.3087299999999997</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>6.214003</c:v>
+                  <c:v>6.2140029999999999</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>7.412909</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>8.936273</c:v>
+                  <c:v>8.9362729999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7F5A-4C71-8A54-97DCD47F43DC}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -4223,6 +4861,29 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> of Day (hours)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
@@ -4242,6 +4903,29 @@
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Energy Consumption</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> (kW)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
@@ -4253,7 +4937,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -4262,7 +4945,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4285,7 +4968,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -4315,7 +5004,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -4347,7 +5042,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -4379,7 +5080,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name="Chart 6"/>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -4416,7 +5123,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -4446,7 +5159,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -4478,7 +5197,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -4510,7 +5235,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -4547,7 +5278,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -4579,7 +5316,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name="Chart 6"/>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -4611,7 +5354,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="8" name="Chart 7"/>
+        <xdr:cNvPr id="8" name="Chart 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -4643,7 +5392,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="9" name="Chart 8"/>
+        <xdr:cNvPr id="9" name="Chart 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -4984,16 +5739,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C119"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A11" workbookViewId="0">
       <selection activeCell="O44" sqref="O44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -5001,7 +5756,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -5012,7 +5767,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>5</v>
       </c>
@@ -5023,7 +5778,7 @@
         <v>4.6435449999999996</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>6</v>
       </c>
@@ -5034,7 +5789,7 @@
         <v>4.7300490000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>7</v>
       </c>
@@ -5045,7 +5800,7 @@
         <v>4.8165529999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>8</v>
       </c>
@@ -5056,7 +5811,7 @@
         <v>4.9030570000000004</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>9</v>
       </c>
@@ -5067,7 +5822,7 @@
         <v>4.9895620000000003</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>10</v>
       </c>
@@ -5078,7 +5833,7 @@
         <v>5.076066</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>11</v>
       </c>
@@ -5089,7 +5844,7 @@
         <v>5.1625699999999997</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>12</v>
       </c>
@@ -5100,7 +5855,7 @@
         <v>5.2490740000000002</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>13</v>
       </c>
@@ -5111,7 +5866,7 @@
         <v>5.3355779999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>14</v>
       </c>
@@ -5122,7 +5877,7 @@
         <v>5.4220819999999996</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>15</v>
       </c>
@@ -5133,7 +5888,7 @@
         <v>5.5085870000000003</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>16</v>
       </c>
@@ -5144,7 +5899,7 @@
         <v>5.595091</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>17</v>
       </c>
@@ -5155,7 +5910,7 @@
         <v>5.6815949999999997</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>18</v>
       </c>
@@ -5166,7 +5921,7 @@
         <v>5.7680990000000003</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>19</v>
       </c>
@@ -5177,7 +5932,7 @@
         <v>5.854603</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>20</v>
       </c>
@@ -5188,7 +5943,7 @@
         <v>5.9411069999999997</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>3</v>
       </c>
@@ -5197,7 +5952,7 @@
       </c>
       <c r="C20" s="2"/>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>0</v>
       </c>
@@ -5208,7 +5963,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>5</v>
       </c>
@@ -5219,7 +5974,7 @@
         <v>4.6435449999999996</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>6</v>
       </c>
@@ -5230,7 +5985,7 @@
         <v>4.7300490000000002</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>7</v>
       </c>
@@ -5241,7 +5996,7 @@
         <v>4.8165529999999999</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>8</v>
       </c>
@@ -5252,7 +6007,7 @@
         <v>4.9030570000000004</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>9</v>
       </c>
@@ -5263,7 +6018,7 @@
         <v>4.9895620000000003</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>10</v>
       </c>
@@ -5274,7 +6029,7 @@
         <v>5.076066</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>11</v>
       </c>
@@ -5285,7 +6040,7 @@
         <v>5.1625699999999997</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>12</v>
       </c>
@@ -5296,7 +6051,7 @@
         <v>5.2490740000000002</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>13</v>
       </c>
@@ -5307,7 +6062,7 @@
         <v>5.3355779999999999</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>14</v>
       </c>
@@ -5318,7 +6073,7 @@
         <v>5.4220819999999996</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>15</v>
       </c>
@@ -5329,7 +6084,7 @@
         <v>5.5085870000000003</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>16</v>
       </c>
@@ -5340,7 +6095,7 @@
         <v>5.595091</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>17</v>
       </c>
@@ -5351,7 +6106,7 @@
         <v>5.6815949999999997</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>18</v>
       </c>
@@ -5362,7 +6117,7 @@
         <v>5.7680990000000003</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>19</v>
       </c>
@@ -5373,7 +6128,7 @@
         <v>5.854603</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <v>20</v>
       </c>
@@ -5384,7 +6139,7 @@
         <v>5.9411069999999997</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>3</v>
       </c>
@@ -5392,7 +6147,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>0</v>
       </c>
@@ -5403,7 +6158,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>5</v>
       </c>
@@ -5414,7 +6169,7 @@
         <v>4.6435449999999996</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>6</v>
       </c>
@@ -5425,7 +6180,7 @@
         <v>4.7300490000000002</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>7</v>
       </c>
@@ -5436,7 +6191,7 @@
         <v>4.8165529999999999</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>8</v>
       </c>
@@ -5447,7 +6202,7 @@
         <v>4.9030570000000004</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>9</v>
       </c>
@@ -5458,7 +6213,7 @@
         <v>4.9895620000000003</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>10</v>
       </c>
@@ -5469,7 +6224,7 @@
         <v>5.076066</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>11</v>
       </c>
@@ -5480,7 +6235,7 @@
         <v>5.1625699999999997</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>12</v>
       </c>
@@ -5491,7 +6246,7 @@
         <v>5.2490740000000002</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>13</v>
       </c>
@@ -5502,7 +6257,7 @@
         <v>5.3355779999999999</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>14</v>
       </c>
@@ -5513,7 +6268,7 @@
         <v>5.4220819999999996</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>15</v>
       </c>
@@ -5524,7 +6279,7 @@
         <v>5.5085870000000003</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>16</v>
       </c>
@@ -5535,7 +6290,7 @@
         <v>5.595091</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>17</v>
       </c>
@@ -5546,7 +6301,7 @@
         <v>5.6815949999999997</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>18</v>
       </c>
@@ -5557,7 +6312,7 @@
         <v>5.7680990000000003</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>19</v>
       </c>
@@ -5568,7 +6323,7 @@
         <v>5.854603</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>20</v>
       </c>
@@ -5579,7 +6334,7 @@
         <v>5.9411069999999997</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>3</v>
       </c>
@@ -5587,7 +6342,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>0</v>
       </c>
@@ -5598,7 +6353,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>5</v>
       </c>
@@ -5609,7 +6364,7 @@
         <v>4.6435449999999996</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>6</v>
       </c>
@@ -5620,7 +6375,7 @@
         <v>4.7300490000000002</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>7</v>
       </c>
@@ -5631,7 +6386,7 @@
         <v>4.8165529999999999</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>8</v>
       </c>
@@ -5642,7 +6397,7 @@
         <v>4.9030570000000004</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>9</v>
       </c>
@@ -5653,7 +6408,7 @@
         <v>4.9895620000000003</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>10</v>
       </c>
@@ -5664,7 +6419,7 @@
         <v>5.076066</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>11</v>
       </c>
@@ -5675,7 +6430,7 @@
         <v>5.1625699999999997</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>12</v>
       </c>
@@ -5686,7 +6441,7 @@
         <v>5.2490740000000002</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>13</v>
       </c>
@@ -5697,7 +6452,7 @@
         <v>5.3355779999999999</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>14</v>
       </c>
@@ -5708,7 +6463,7 @@
         <v>5.4220819999999996</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>15</v>
       </c>
@@ -5719,7 +6474,7 @@
         <v>5.5085870000000003</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>16</v>
       </c>
@@ -5730,7 +6485,7 @@
         <v>5.595091</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>17</v>
       </c>
@@ -5741,7 +6496,7 @@
         <v>5.6815949999999997</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>18</v>
       </c>
@@ -5752,7 +6507,7 @@
         <v>5.7680990000000003</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>19</v>
       </c>
@@ -5763,7 +6518,7 @@
         <v>5.854603</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>20</v>
       </c>
@@ -5774,16 +6529,16 @@
         <v>5.9411069999999997</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" s="1"/>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C79" s="2"/>
     </row>
-    <row r="98" spans="1:1">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A98" s="1"/>
     </row>
-    <row r="119" spans="1:1">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A119" s="1"/>
     </row>
   </sheetData>
@@ -5799,21 +6554,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C75"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="Q47" sqref="Q47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -5824,7 +6579,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>5</v>
       </c>
@@ -5835,7 +6590,7 @@
         <v>4.2283780000000002</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>6</v>
       </c>
@@ -5846,7 +6601,7 @@
         <v>4.4283809999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>7</v>
       </c>
@@ -5857,7 +6612,7 @@
         <v>4.6155660000000003</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>8</v>
       </c>
@@ -5868,7 +6623,7 @@
         <v>4.7899330000000004</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>9</v>
       </c>
@@ -5879,7 +6634,7 @@
         <v>4.9514820000000004</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>10</v>
       </c>
@@ -5890,7 +6645,7 @@
         <v>5.100212</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>11</v>
       </c>
@@ -5901,7 +6656,7 @@
         <v>5.2361250000000004</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>12</v>
       </c>
@@ -5912,7 +6667,7 @@
         <v>5.3592190000000004</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>13</v>
       </c>
@@ -5923,7 +6678,7 @@
         <v>5.4694950000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>14</v>
       </c>
@@ -5934,7 +6689,7 @@
         <v>5.5669529999999998</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>15</v>
       </c>
@@ -5945,7 +6700,7 @@
         <v>5.6515930000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>16</v>
       </c>
@@ -5956,7 +6711,7 @@
         <v>5.723414</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>17</v>
       </c>
@@ -5967,7 +6722,7 @@
         <v>5.7824179999999998</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>18</v>
       </c>
@@ -5978,7 +6733,7 @@
         <v>5.8286030000000002</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>19</v>
       </c>
@@ -5989,7 +6744,7 @@
         <v>5.8619709999999996</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>20</v>
       </c>
@@ -6000,13 +6755,13 @@
         <v>5.8825200000000004</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C20" s="2"/>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>0</v>
       </c>
@@ -6017,7 +6772,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>5</v>
       </c>
@@ -6028,7 +6783,7 @@
         <v>4.2283780000000002</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>6</v>
       </c>
@@ -6039,7 +6794,7 @@
         <v>4.4283809999999999</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>7</v>
       </c>
@@ -6050,7 +6805,7 @@
         <v>4.6155660000000003</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>8</v>
       </c>
@@ -6061,7 +6816,7 @@
         <v>4.7899330000000004</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>9</v>
       </c>
@@ -6072,7 +6827,7 @@
         <v>4.9514820000000004</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>10</v>
       </c>
@@ -6083,7 +6838,7 @@
         <v>5.100212</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>11</v>
       </c>
@@ -6094,7 +6849,7 @@
         <v>5.2361250000000004</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>12</v>
       </c>
@@ -6105,7 +6860,7 @@
         <v>5.3592190000000004</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>13</v>
       </c>
@@ -6116,7 +6871,7 @@
         <v>5.4694950000000002</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>14</v>
       </c>
@@ -6127,7 +6882,7 @@
         <v>5.5669529999999998</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>15</v>
       </c>
@@ -6138,7 +6893,7 @@
         <v>5.6515930000000001</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>16</v>
       </c>
@@ -6149,7 +6904,7 @@
         <v>5.723414</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>17</v>
       </c>
@@ -6160,7 +6915,7 @@
         <v>5.7824179999999998</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>18</v>
       </c>
@@ -6171,7 +6926,7 @@
         <v>5.8286030000000002</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>19</v>
       </c>
@@ -6182,7 +6937,7 @@
         <v>5.8619709999999996</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <v>20</v>
       </c>
@@ -6193,12 +6948,12 @@
         <v>5.8825200000000004</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>0</v>
       </c>
@@ -6209,7 +6964,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>5</v>
       </c>
@@ -6220,7 +6975,7 @@
         <v>4.2283780000000002</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>6</v>
       </c>
@@ -6231,7 +6986,7 @@
         <v>4.4283809999999999</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>7</v>
       </c>
@@ -6242,7 +6997,7 @@
         <v>4.6155660000000003</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>8</v>
       </c>
@@ -6253,7 +7008,7 @@
         <v>4.7899330000000004</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>9</v>
       </c>
@@ -6264,7 +7019,7 @@
         <v>4.9514820000000004</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>10</v>
       </c>
@@ -6275,7 +7030,7 @@
         <v>5.100212</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>11</v>
       </c>
@@ -6286,7 +7041,7 @@
         <v>5.2361250000000004</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>12</v>
       </c>
@@ -6297,7 +7052,7 @@
         <v>5.3592190000000004</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>13</v>
       </c>
@@ -6308,7 +7063,7 @@
         <v>5.4694950000000002</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>14</v>
       </c>
@@ -6319,7 +7074,7 @@
         <v>5.5669529999999998</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>15</v>
       </c>
@@ -6330,7 +7085,7 @@
         <v>5.6515930000000001</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>16</v>
       </c>
@@ -6341,7 +7096,7 @@
         <v>5.723414</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>17</v>
       </c>
@@ -6352,7 +7107,7 @@
         <v>5.7824179999999998</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>18</v>
       </c>
@@ -6363,7 +7118,7 @@
         <v>5.8286030000000002</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>19</v>
       </c>
@@ -6374,7 +7129,7 @@
         <v>5.8619709999999996</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>20</v>
       </c>
@@ -6385,12 +7140,12 @@
         <v>5.8825200000000004</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>0</v>
       </c>
@@ -6401,7 +7156,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>5</v>
       </c>
@@ -6412,7 +7167,7 @@
         <v>4.2283780000000002</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>6</v>
       </c>
@@ -6423,7 +7178,7 @@
         <v>4.4283809999999999</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>7</v>
       </c>
@@ -6434,7 +7189,7 @@
         <v>4.6155660000000003</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>8</v>
       </c>
@@ -6445,7 +7200,7 @@
         <v>4.7899330000000004</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>9</v>
       </c>
@@ -6456,7 +7211,7 @@
         <v>4.9514820000000004</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>10</v>
       </c>
@@ -6467,7 +7222,7 @@
         <v>5.100212</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>11</v>
       </c>
@@ -6478,7 +7233,7 @@
         <v>5.2361250000000004</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>12</v>
       </c>
@@ -6489,7 +7244,7 @@
         <v>5.3592190000000004</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>13</v>
       </c>
@@ -6500,7 +7255,7 @@
         <v>5.4694950000000002</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>14</v>
       </c>
@@ -6511,7 +7266,7 @@
         <v>5.5669529999999998</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>15</v>
       </c>
@@ -6522,7 +7277,7 @@
         <v>5.6515930000000001</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>16</v>
       </c>
@@ -6533,7 +7288,7 @@
         <v>5.723414</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>17</v>
       </c>
@@ -6544,7 +7299,7 @@
         <v>5.7824179999999998</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>18</v>
       </c>
@@ -6555,7 +7310,7 @@
         <v>5.8286030000000002</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>19</v>
       </c>
@@ -6566,7 +7321,7 @@
         <v>5.8619709999999996</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>20</v>
       </c>
@@ -6590,21 +7345,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C75"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L64" sqref="L64"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="H74" sqref="H74"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -6615,7 +7370,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>5</v>
       </c>
@@ -6626,7 +7381,7 @@
         <v>6.1280510000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>6</v>
       </c>
@@ -6637,7 +7392,7 @@
         <v>5.9141769999999996</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>7</v>
       </c>
@@ -6648,7 +7403,7 @@
         <v>5.6240209999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>8</v>
       </c>
@@ -6659,7 +7414,7 @@
         <v>5.2884099999999998</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>9</v>
       </c>
@@ -6670,7 +7425,7 @@
         <v>4.9381700000000004</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>10</v>
       </c>
@@ -6681,7 +7436,7 @@
         <v>4.6041259999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>11</v>
       </c>
@@ -6692,7 +7447,7 @@
         <v>4.3171059999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>12</v>
       </c>
@@ -6703,7 +7458,7 @@
         <v>4.1079340000000002</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>13</v>
       </c>
@@ -6714,7 +7469,7 @@
         <v>4.0074379999999996</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>14</v>
       </c>
@@ -6725,7 +7480,7 @@
         <v>4.046443</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>15</v>
       </c>
@@ -6736,7 +7491,7 @@
         <v>4.255776</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>16</v>
       </c>
@@ -6747,7 +7502,7 @@
         <v>4.6662629999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>17</v>
       </c>
@@ -6758,7 +7513,7 @@
         <v>5.3087299999999997</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>18</v>
       </c>
@@ -6769,7 +7524,7 @@
         <v>6.2140029999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>19</v>
       </c>
@@ -6780,7 +7535,7 @@
         <v>7.412909</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>20</v>
       </c>
@@ -6791,13 +7546,13 @@
         <v>8.9362729999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C20" s="2"/>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>0</v>
       </c>
@@ -6808,7 +7563,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>5</v>
       </c>
@@ -6819,7 +7574,7 @@
         <v>6.0443389999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>6</v>
       </c>
@@ -6830,7 +7585,7 @@
         <v>5.9131520000000002</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>7</v>
       </c>
@@ -6841,7 +7596,7 @@
         <v>5.6760099999999998</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>8</v>
       </c>
@@ -6852,7 +7607,7 @@
         <v>5.3681159999999997</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>9</v>
       </c>
@@ -6863,7 +7618,7 @@
         <v>5.0246719999999998</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>10</v>
       </c>
@@ -6874,7 +7629,7 @@
         <v>4.6808800000000002</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>11</v>
       </c>
@@ -6885,7 +7640,7 @@
         <v>4.3719419999999998</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>12</v>
       </c>
@@ -6896,7 +7651,7 @@
         <v>4.1330600000000004</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>13</v>
       </c>
@@ -6907,7 +7662,7 @@
         <v>3.9994369999999999</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>14</v>
       </c>
@@ -6918,7 +7673,7 @@
         <v>4.0062749999999996</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>15</v>
       </c>
@@ -6929,7 +7684,7 @@
         <v>4.1887759999999998</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>16</v>
       </c>
@@ -6940,7 +7695,7 @@
         <v>4.582141</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>17</v>
       </c>
@@ -6951,7 +7706,7 @@
         <v>5.2215740000000004</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>18</v>
       </c>
@@ -6962,7 +7717,7 @@
         <v>6.1422759999999998</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>19</v>
       </c>
@@ -6973,7 +7728,7 @@
         <v>7.3794500000000003</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <v>20</v>
       </c>
@@ -6984,12 +7739,12 @@
         <v>8.9682980000000008</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>0</v>
       </c>
@@ -7000,7 +7755,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>5</v>
       </c>
@@ -7011,7 +7766,7 @@
         <v>6.0443389999999999</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>6</v>
       </c>
@@ -7022,7 +7777,7 @@
         <v>5.9131520000000002</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>7</v>
       </c>
@@ -7033,7 +7788,7 @@
         <v>5.6760099999999998</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>8</v>
       </c>
@@ -7044,7 +7799,7 @@
         <v>5.3681159999999997</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>9</v>
       </c>
@@ -7055,7 +7810,7 @@
         <v>5.0246719999999998</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>10</v>
       </c>
@@ -7066,7 +7821,7 @@
         <v>4.6808800000000002</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>11</v>
       </c>
@@ -7077,7 +7832,7 @@
         <v>4.3719419999999998</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>12</v>
       </c>
@@ -7088,7 +7843,7 @@
         <v>4.1330600000000004</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>13</v>
       </c>
@@ -7099,7 +7854,7 @@
         <v>3.9994369999999999</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>14</v>
       </c>
@@ -7110,7 +7865,7 @@
         <v>4.0062749999999996</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>15</v>
       </c>
@@ -7121,7 +7876,7 @@
         <v>4.1887759999999998</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>16</v>
       </c>
@@ -7132,7 +7887,7 @@
         <v>4.582141</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>17</v>
       </c>
@@ -7143,7 +7898,7 @@
         <v>5.2215740000000004</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>18</v>
       </c>
@@ -7154,7 +7909,7 @@
         <v>6.1422759999999998</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>19</v>
       </c>
@@ -7165,7 +7920,7 @@
         <v>7.3794500000000003</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>20</v>
       </c>
@@ -7176,12 +7931,12 @@
         <v>8.9682980000000008</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>0</v>
       </c>
@@ -7192,7 +7947,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>5</v>
       </c>
@@ -7203,7 +7958,7 @@
         <v>6.0443389999999999</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>6</v>
       </c>
@@ -7214,7 +7969,7 @@
         <v>5.9131520000000002</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>7</v>
       </c>
@@ -7225,7 +7980,7 @@
         <v>5.6760099999999998</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>8</v>
       </c>
@@ -7236,7 +7991,7 @@
         <v>5.3681159999999997</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>9</v>
       </c>
@@ -7247,7 +8002,7 @@
         <v>5.0246719999999998</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>10</v>
       </c>
@@ -7258,7 +8013,7 @@
         <v>4.6808800000000002</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>11</v>
       </c>
@@ -7269,7 +8024,7 @@
         <v>4.3719419999999998</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>12</v>
       </c>
@@ -7280,7 +8035,7 @@
         <v>4.1330600000000004</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>13</v>
       </c>
@@ -7291,7 +8046,7 @@
         <v>3.9994369999999999</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>14</v>
       </c>
@@ -7302,7 +8057,7 @@
         <v>4.0062749999999996</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>15</v>
       </c>
@@ -7313,7 +8068,7 @@
         <v>4.1887759999999998</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>16</v>
       </c>
@@ -7324,7 +8079,7 @@
         <v>4.582141</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>17</v>
       </c>
@@ -7335,7 +8090,7 @@
         <v>5.2215740000000004</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>18</v>
       </c>
@@ -7346,7 +8101,7 @@
         <v>6.1422759999999998</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>19</v>
       </c>
@@ -7357,7 +8112,7 @@
         <v>7.3794500000000003</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>20</v>
       </c>
